--- a/industrial-java/task7/Document.xlsx
+++ b/industrial-java/task7/Document.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Авансовый отчет</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>12 - 13</t>
+  </si>
+  <si>
+    <t>вчапсп</t>
+  </si>
+  <si>
+    <t>ваыа</t>
+  </si>
+  <si>
+    <t>аывпв</t>
+  </si>
+  <si>
+    <t>ыва - 43цкуы</t>
   </si>
 </sst>
 </file>
@@ -503,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -511,7 +523,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -519,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -527,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -535,7 +547,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>10000.0</v>
+        <v>454.0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -557,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>1000.0</v>
+        <v>5454.0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -565,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>6000.0</v>
+        <v>534534.0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -573,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>2500.0</v>
+        <v>543543.0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -581,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>9500.0</v>
+        <v>1083531.0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -589,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -597,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.0</v>
+        <v>1083077.0</v>
       </c>
     </row>
   </sheetData>
